--- a/Besoin.xlsx
+++ b/Besoin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anne-gabrielle/mig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FEC3B6-474A-134D-80AD-50175760E0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB8E22-0D7F-D542-A22A-2625377E16ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="500" windowWidth="14280" windowHeight="15980" xr2:uid="{8F33535A-E90D-E647-BC2D-2E386ECE5620}"/>
+    <workbookView xWindow="18100" yWindow="500" windowWidth="14280" windowHeight="15980" xr2:uid="{8F33535A-E90D-E647-BC2D-2E386ECE5620}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -106,13 +106,13 @@
     <t>épaisseur (mm)</t>
   </si>
   <si>
-    <t>taille (m2)</t>
-  </si>
-  <si>
     <t>2,5 &lt; x &lt; inf</t>
   </si>
   <si>
     <t xml:space="preserve">0,1 &lt; x &lt; 0,5 </t>
+  </si>
+  <si>
+    <t>taille (cm2)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,16 +494,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>300</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -514,13 +514,13 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>0.1</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -534,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E4">
         <v>1000</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -585,10 +585,10 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -613,10 +613,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>9.5</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>
